--- a/paper/pldi23/img/data.xlsx
+++ b/paper/pldi23/img/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/internal-esmeta/babel-study/paper/pldi23/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6FF34-8B17-024B-959E-30E757F65B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD5284-0CBC-3D4D-BEC2-6B4C5188C27B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{45A293A3-4F51-A547-B5E2-28579CD7826C}"/>
   </bookViews>
@@ -7517,13 +7517,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>87210</xdr:rowOff>
+      <xdr:rowOff>79172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>362857</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>58435</xdr:rowOff>
+      <xdr:rowOff>50397</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12773,7 +12773,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/paper/pldi23/img/data.xlsx
+++ b/paper/pldi23/img/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/internal-esmeta/babel-study/paper/pldi23/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD5284-0CBC-3D4D-BEC2-6B4C5188C27B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B752905-8BEE-AC41-AEDB-D3480FC6654B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{45A293A3-4F51-A547-B5E2-28579CD7826C}"/>
   </bookViews>
@@ -124,7 +124,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22102416666666666"/>
+          <c:y val="6.3841569707935086E-2"/>
+          <c:w val="0.70582055555555556"/>
+          <c:h val="0.65917261084324108"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2420,60 +2430,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t># TR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0E+0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2576,1094 +2532,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v># 1-FS-TR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$D$2:$D$127</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="126"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$E$2:$E$127</c:f>
-              <c:numCache>
-                <c:formatCode>0E+0</c:formatCode>
-                <c:ptCount val="126"/>
-                <c:pt idx="0">
-                  <c:v>25911</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37137</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12461</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4580</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1427</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2546</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>877</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1589</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>557</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1491</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>811</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>794</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED98-D649-AB73-ABA383F44322}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1985328303"/>
-        <c:axId val="1184679248"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1985328303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t># 2-FS-TR / 1-FS-TR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1184679248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="50"/>
-        <c:tickLblSkip val="50"/>
-        <c:tickMarkSkip val="25"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1184679248"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t># 1-FS-TR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0E+0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="15875">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1985328303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22102416666666666"/>
+          <c:y val="6.3841569707935086E-2"/>
+          <c:w val="0.72717500000000002"/>
+          <c:h val="0.65917261084324108"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -4309,75 +3188,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t> 1-FS-TR</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1800">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0E+0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4464,7 +3274,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5021,60 +3831,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t># 2-FS-R</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0E+0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5108,8 +3864,1053 @@
         <c:crossAx val="1985328303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
-        <c:minorUnit val="20"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22102416666666666"/>
+          <c:y val="6.3841615562632792E-2"/>
+          <c:w val="0.70763777777777781"/>
+          <c:h val="0.66943159960294718"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># 2-FS-TR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$D$2:$D$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="126"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$2:$E$127</c:f>
+              <c:numCache>
+                <c:formatCode>0E+0</c:formatCode>
+                <c:ptCount val="126"/>
+                <c:pt idx="0">
+                  <c:v>25911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED98-D649-AB73-ABA383F44322}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1985328303"/>
+        <c:axId val="1184679248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1985328303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t># 2-FS-TR / 1-FS-TR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184679248"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="50"/>
+        <c:tickLblSkip val="30"/>
+        <c:tickMarkSkip val="30"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184679248"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0E+0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1985328303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7345,8 +7146,8 @@
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>362857</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>688404</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>44251</xdr:rowOff>
     </xdr:to>
@@ -7378,13 +7179,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>791753</xdr:colOff>
+      <xdr:colOff>422006</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>49799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>791753</xdr:colOff>
+      <xdr:colOff>422006</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>81759</xdr:rowOff>
     </xdr:to>
@@ -7401,8 +7202,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1614800" y="453147"/>
-          <a:ext cx="0" cy="1847024"/>
+          <a:off x="1249917" y="451698"/>
+          <a:ext cx="0" cy="1840504"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7434,11 +7235,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>794966</xdr:colOff>
+      <xdr:colOff>425219</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>122780</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1425801" cy="323102"/>
+    <xdr:ext cx="1608389" cy="323102"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6">
@@ -7452,8 +7253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1618013" y="526128"/>
-          <a:ext cx="1425801" cy="323102"/>
+          <a:off x="1253130" y="524679"/>
+          <a:ext cx="1608389" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7505,7 +7306,7 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>8.03</a:t>
+            <a:t>8.03x</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7514,23 +7315,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>79172</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>807522</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>362857</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50397</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>267965</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="20" name="Chart 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98E6D63-B35E-2644-B679-912A313F4541}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2664541A-94AB-0F4F-846C-2305F2C2C6BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7552,23 +7353,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200603</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63984</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>824604</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200603</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95944</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>824604</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81759</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Connector 11">
+        <xdr:cNvPr id="21" name="Straight Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2EAEA5-053E-7840-9808-31931257CF8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9810EE17-F721-8748-9B06-5D2D322E76D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7576,7 +7377,182 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856426" y="3480123"/>
+          <a:off x="7447895" y="451698"/>
+          <a:ext cx="0" cy="1840504"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7943</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>122780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1712184" cy="323102"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B642B21C-25A6-DB44-A515-70D374B858C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7459146" y="524679"/>
+          <a:ext cx="1712184" cy="323102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>avg.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>2.22x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>807522</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>267965</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58435</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBB7FE9-A43B-2842-98E3-268ED7357591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13265</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13265</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95944</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74040CB9-267A-C941-9E17-2B91E3D8FF22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7464468" y="3480123"/>
           <a:ext cx="0" cy="1840505"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7608,18 +7584,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>203812</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16474</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>136965</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1592416" cy="323102"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12">
+        <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3C0E9C-71E5-B740-BD9F-19CD7BA9A6E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E43FDD4-EF59-EF4B-B14B-ABBA641E9A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7627,7 +7603,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1859635" y="3553104"/>
+          <a:off x="7467677" y="3553104"/>
           <a:ext cx="1592416" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7680,7 +7656,7 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>15.17</a:t>
+            <a:t>1.91x</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7689,198 +7665,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>807522</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>770328</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44251</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2664541A-94AB-0F4F-846C-2305F2C2C6BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>49799</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>81759</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9810EE17-F721-8748-9B06-5D2D322E76D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7809603" y="451698"/>
-          <a:ext cx="0" cy="1840504"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>369651</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>122780</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1425801" cy="323102"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B642B21C-25A6-DB44-A515-70D374B858C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7864733" y="539173"/>
-          <a:ext cx="1425801" cy="323102"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>avg.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>2.22</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>807522</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>432547</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>87210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>770328</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>720901</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>58435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="23" name="Chart 22">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBB7FE9-A43B-2842-98E3-268ED7357591}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C965921-C2B4-AC48-9D74-F12B00BEC64A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7902,23 +7703,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>125797</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>715379</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>63984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>125797</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>715379</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95944</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Connector 23">
+        <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74040CB9-267A-C941-9E17-2B91E3D8FF22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D300D49-F57F-2F42-8FEF-71184C0B4FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7926,7 +7727,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8404911" y="3480123"/>
+          <a:off x="1543290" y="3480123"/>
           <a:ext cx="0" cy="1840505"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7958,18 +7759,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>129006</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>734664</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>136965</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1592416" cy="323102"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24">
+        <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E43FDD4-EF59-EF4B-B14B-ABBA641E9A97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3368982-26DD-9648-A9B1-81CA4EC05A7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7977,7 +7778,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8408120" y="3553104"/>
+          <a:off x="1562575" y="3553104"/>
           <a:ext cx="1592416" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8030,7 +7831,7 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>15.17</a:t>
+            <a:t>15.17x</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8339,8 +8140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBB744D-AE81-024F-BDA2-9DAEA7CD0DD0}">
   <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView zoomScale="254" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A26" zoomScale="254" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8348,6 +8149,7 @@
     <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="5" max="5" width="10.83203125" style="4"/>
     <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -12773,7 +12575,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/paper/pldi23/img/data.xlsx
+++ b/paper/pldi23/img/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/internal-esmeta/babel-study/paper/pldi23/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCD9DF7-32E2-7846-8DA6-7D9F9FBA0C34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA55483-E05A-2141-8D59-BF11A851210C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{45A293A3-4F51-A547-B5E2-28579CD7826C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{45A293A3-4F51-A547-B5E2-28579CD7826C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -5007,9 +5007,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.2816422249821177E-2"/>
+          <c:x val="0.1795177083333333"/>
           <c:y val="0.20114621829311019"/>
-          <c:w val="0.89174723941226086"/>
+          <c:w val="0.7550458333333333"/>
           <c:h val="0.5218679155210787"/>
         </c:manualLayout>
       </c:layout>
@@ -5021,7 +5021,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$O$1</c:f>
+              <c:f>data!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5033,7 +5033,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5206,162 +5208,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$O$2:$O$52</c:f>
+              <c:f>data!$S$2:$S$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>7592</c:v>
+                  <c:v>33812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12735</c:v>
+                  <c:v>125348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14188</c:v>
+                  <c:v>154828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14560</c:v>
+                  <c:v>176273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14803</c:v>
+                  <c:v>190940</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14947</c:v>
+                  <c:v>199740</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14990</c:v>
+                  <c:v>206510</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15075</c:v>
+                  <c:v>212273</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15126</c:v>
+                  <c:v>218578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15155</c:v>
+                  <c:v>223441</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15181</c:v>
+                  <c:v>226551</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15198</c:v>
+                  <c:v>230471</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15207</c:v>
+                  <c:v>233895</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15210</c:v>
+                  <c:v>237020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15218</c:v>
+                  <c:v>239531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15228</c:v>
+                  <c:v>241818</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15230</c:v>
+                  <c:v>244847</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15232</c:v>
+                  <c:v>247432</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15241</c:v>
+                  <c:v>248614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15241</c:v>
+                  <c:v>249757</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15245</c:v>
+                  <c:v>251684</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15246</c:v>
+                  <c:v>252693</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15258</c:v>
+                  <c:v>254448</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15263</c:v>
+                  <c:v>255263</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15265</c:v>
+                  <c:v>257113</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15268</c:v>
+                  <c:v>259396</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15269</c:v>
+                  <c:v>260316</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15269</c:v>
+                  <c:v>261792</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15277</c:v>
+                  <c:v>262572</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15277</c:v>
+                  <c:v>263715</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15277</c:v>
+                  <c:v>264588</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15297</c:v>
+                  <c:v>266003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15297</c:v>
+                  <c:v>266653</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15300</c:v>
+                  <c:v>267228</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15301</c:v>
+                  <c:v>268320</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15301</c:v>
+                  <c:v>268805</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15306</c:v>
+                  <c:v>269773</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>15307</c:v>
+                  <c:v>270998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15308</c:v>
+                  <c:v>271756</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15308</c:v>
+                  <c:v>272418</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15308</c:v>
+                  <c:v>272652</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15314</c:v>
+                  <c:v>273381</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15315</c:v>
+                  <c:v>273733</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15326</c:v>
+                  <c:v>274399</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>15331</c:v>
+                  <c:v>274637</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15334</c:v>
+                  <c:v>274724</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15340</c:v>
+                  <c:v>274842</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15497</c:v>
+                  <c:v>275076</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15559</c:v>
+                  <c:v>275994</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15559</c:v>
+                  <c:v>276465</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15562</c:v>
+                  <c:v>277325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5378,7 +5380,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$P$1</c:f>
+              <c:f>data!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5392,6 +5394,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5563,162 +5566,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$P$2:$P$52</c:f>
+              <c:f>data!$T$2:$T$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17248</c:v>
+                  <c:v>290903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5865,6 +5868,80 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> 1-FCPS-TP</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.1789930555555558E-2"/>
+              <c:y val="0.29681689342403628"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5887,9 +5964,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.5811080436112857E-2"/>
+          <c:x val="0.1772347222222222"/>
           <c:y val="3.2316819502908184E-2"/>
-          <c:w val="0.84671289624984181"/>
+          <c:w val="0.74528923611111109"/>
           <c:h val="0.10709695101353146"/>
         </c:manualLayout>
       </c:layout>
@@ -5984,9 +6061,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.2816422249821177E-2"/>
+          <c:x val="0.1795177083333333"/>
           <c:y val="0.20114621829311019"/>
-          <c:w val="0.89174723941226086"/>
+          <c:w val="0.7550458333333333"/>
           <c:h val="0.5218679155210787"/>
         </c:manualLayout>
       </c:layout>
@@ -5998,7 +6075,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$Q$1</c:f>
+              <c:f>data!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6010,7 +6087,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6183,1139 +6262,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$Q$2:$Q$52</c:f>
+              <c:f>data!$U$2:$U$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>25217</c:v>
+                  <c:v>35390</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79298</c:v>
+                  <c:v>525735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90543</c:v>
+                  <c:v>697756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96161</c:v>
+                  <c:v>819832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101000</c:v>
+                  <c:v>916776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104558</c:v>
+                  <c:v>1005524</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107540</c:v>
+                  <c:v>1081709</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109622</c:v>
+                  <c:v>1142580</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111760</c:v>
+                  <c:v>1197877</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112617</c:v>
+                  <c:v>1247433</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>113491</c:v>
+                  <c:v>1293516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114055</c:v>
+                  <c:v>1334184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>114685</c:v>
+                  <c:v>1366549</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115585</c:v>
+                  <c:v>1394439</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>116628</c:v>
+                  <c:v>1417027</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117196</c:v>
+                  <c:v>1444121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>117742</c:v>
+                  <c:v>1467507</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118606</c:v>
+                  <c:v>1491634</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>118975</c:v>
+                  <c:v>1517807</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119415</c:v>
+                  <c:v>1537188</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>119543</c:v>
+                  <c:v>1557655</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>120053</c:v>
+                  <c:v>1578942</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>120334</c:v>
+                  <c:v>1595394</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>120686</c:v>
+                  <c:v>1612143</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>121040</c:v>
+                  <c:v>1629197</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121320</c:v>
+                  <c:v>1643050</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>121534</c:v>
+                  <c:v>1657534</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>121739</c:v>
+                  <c:v>1670408</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>121896</c:v>
+                  <c:v>1682665</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>122011</c:v>
+                  <c:v>1695974</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>122227</c:v>
+                  <c:v>1706587</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>122336</c:v>
+                  <c:v>1716841</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>122596</c:v>
+                  <c:v>1727691</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>122725</c:v>
+                  <c:v>1739520</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>122756</c:v>
+                  <c:v>1750139</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>122981</c:v>
+                  <c:v>1761174</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>123009</c:v>
+                  <c:v>1771675</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>123375</c:v>
+                  <c:v>1780457</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>123517</c:v>
+                  <c:v>1790003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>123617</c:v>
+                  <c:v>1799648</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>123675</c:v>
+                  <c:v>1809057</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>123875</c:v>
+                  <c:v>1818210</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>124040</c:v>
+                  <c:v>1827058</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>124186</c:v>
+                  <c:v>1835500</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>124275</c:v>
+                  <c:v>1846940</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>124315</c:v>
+                  <c:v>1856998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>124519</c:v>
+                  <c:v>1865557</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>124621</c:v>
+                  <c:v>1873413</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>124778</c:v>
+                  <c:v>1880522</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>124923</c:v>
+                  <c:v>1888991</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>124994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E87A-E84F-867E-E3D916BF1917}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>test262</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$N$2:$N$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$R$2:$R$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>122274</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>122274</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B989-9848-AEDB-24DE180EC73C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1985328303"/>
-        <c:axId val="1184679248"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1985328303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t>time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t> (h)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1800">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1184679248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="25"/>
-        <c:tickMarkSkip val="25"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1184679248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1985328303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.5811080436112857E-2"/>
-          <c:y val="3.2316819502908184E-2"/>
-          <c:w val="0.84456556326917531"/>
-          <c:h val="0.1070968751681959"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.2816422249821177E-2"/>
-          <c:y val="0.20114621829311019"/>
-          <c:w val="0.89174723941226086"/>
-          <c:h val="0.5218679155210787"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>our</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$N$2:$N$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$O$2:$O$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>7592</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12735</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14803</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14947</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14990</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15075</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15126</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15155</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15181</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15198</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15207</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15210</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15218</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15228</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15230</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15232</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15241</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15241</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15245</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15246</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15258</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15263</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15265</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15268</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15269</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15269</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15277</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15277</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15277</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15297</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15297</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15300</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15301</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15301</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15306</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>15307</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15308</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15308</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15308</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15314</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15315</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>15326</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>15331</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>15334</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>15340</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15497</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15559</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15559</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>15562</c:v>
+                  <c:v>1896074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7332,7 +6434,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$P$1</c:f>
+              <c:f>data!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7346,6 +6448,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7517,162 +6620,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$P$2:$P$52</c:f>
+              <c:f>data!$V$2:$V$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>17248</c:v>
+                  <c:v>393475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7819,6 +6922,80 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> 2-FS-TP</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.1789930555555558E-2"/>
+              <c:y val="0.29681689342403628"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -7841,10 +7018,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.5811080436112857E-2"/>
+          <c:x val="0.1772347222222222"/>
           <c:y val="3.2316819502908184E-2"/>
-          <c:w val="0.85103870170051787"/>
-          <c:h val="0.10791099700226418"/>
+          <c:w val="0.74528923611111109"/>
+          <c:h val="0.10709695101353146"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7917,7 +7094,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7938,9 +7115,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.2816422249821177E-2"/>
+          <c:x val="0.1795177083333333"/>
           <c:y val="0.20114621829311019"/>
-          <c:w val="0.89174723941226086"/>
+          <c:w val="0.7550458333333333"/>
           <c:h val="0.5218679155210787"/>
         </c:manualLayout>
       </c:layout>
@@ -7964,7 +7141,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8323,6 +7502,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -8796,6 +7976,80 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> 2-FCPS-TP</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.1789930555555558E-2"/>
+              <c:y val="0.29681689342403628"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -8818,10 +8072,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.5811080436112857E-2"/>
+          <c:x val="0.1772347222222222"/>
           <c:y val="3.2316819502908184E-2"/>
-          <c:w val="0.85103870170051787"/>
-          <c:h val="0.10791099700226418"/>
+          <c:w val="0.74528923611111109"/>
+          <c:h val="0.10709695101353146"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8894,7 +8148,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8915,9 +8169,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.2816422249821177E-2"/>
+          <c:x val="0.1795177083333333"/>
           <c:y val="0.20114621829311019"/>
-          <c:w val="0.89174723941226086"/>
+          <c:w val="0.7550458333333333"/>
           <c:h val="0.5218679155210787"/>
         </c:manualLayout>
       </c:layout>
@@ -8929,7 +8183,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$U$1</c:f>
+              <c:f>data!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8941,7 +8195,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9114,162 +8370,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$U$2:$U$52</c:f>
+              <c:f>data!$Q$2:$Q$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>35390</c:v>
+                  <c:v>25217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>525735</c:v>
+                  <c:v>79298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>697756</c:v>
+                  <c:v>90543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>819832</c:v>
+                  <c:v>96161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>916776</c:v>
+                  <c:v>101000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1005524</c:v>
+                  <c:v>104558</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1081709</c:v>
+                  <c:v>107540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1142580</c:v>
+                  <c:v>109622</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1197877</c:v>
+                  <c:v>111760</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1247433</c:v>
+                  <c:v>112617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1293516</c:v>
+                  <c:v>113491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1334184</c:v>
+                  <c:v>114055</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1366549</c:v>
+                  <c:v>114685</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1394439</c:v>
+                  <c:v>115585</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1417027</c:v>
+                  <c:v>116628</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1444121</c:v>
+                  <c:v>117196</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1467507</c:v>
+                  <c:v>117742</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1491634</c:v>
+                  <c:v>118606</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1517807</c:v>
+                  <c:v>118975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1537188</c:v>
+                  <c:v>119415</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1557655</c:v>
+                  <c:v>119543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1578942</c:v>
+                  <c:v>120053</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1595394</c:v>
+                  <c:v>120334</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1612143</c:v>
+                  <c:v>120686</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1629197</c:v>
+                  <c:v>121040</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1643050</c:v>
+                  <c:v>121320</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1657534</c:v>
+                  <c:v>121534</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1670408</c:v>
+                  <c:v>121739</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1682665</c:v>
+                  <c:v>121896</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1695974</c:v>
+                  <c:v>122011</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1706587</c:v>
+                  <c:v>122227</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1716841</c:v>
+                  <c:v>122336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1727691</c:v>
+                  <c:v>122596</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1739520</c:v>
+                  <c:v>122725</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1750139</c:v>
+                  <c:v>122756</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1761174</c:v>
+                  <c:v>122981</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1771675</c:v>
+                  <c:v>123009</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1780457</c:v>
+                  <c:v>123375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1790003</c:v>
+                  <c:v>123517</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1799648</c:v>
+                  <c:v>123617</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1809057</c:v>
+                  <c:v>123675</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1818210</c:v>
+                  <c:v>123875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1827058</c:v>
+                  <c:v>124040</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1835500</c:v>
+                  <c:v>124186</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1846940</c:v>
+                  <c:v>124275</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1856998</c:v>
+                  <c:v>124315</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1865557</c:v>
+                  <c:v>124519</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1873413</c:v>
+                  <c:v>124621</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1880522</c:v>
+                  <c:v>124778</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1888991</c:v>
+                  <c:v>124923</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1896074</c:v>
+                  <c:v>124994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9286,7 +8542,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$V$1</c:f>
+              <c:f>data!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9300,6 +8556,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9471,162 +8728,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$V$2:$V$52</c:f>
+              <c:f>data!$R$2:$R$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>393475</c:v>
+                  <c:v>122274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9773,6 +9030,80 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> 1-FS-TP</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.1789930555555558E-2"/>
+              <c:y val="0.29681689342403628"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -9795,10 +9126,1064 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.5811080436112857E-2"/>
+          <c:x val="0.1772347222222222"/>
           <c:y val="3.2316819502908184E-2"/>
-          <c:w val="0.85103870170051787"/>
-          <c:h val="0.10791099700226418"/>
+          <c:w val="0.74528923611111109"/>
+          <c:h val="0.10709695101353146"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1795177083333333"/>
+          <c:y val="0.20114621829311019"/>
+          <c:w val="0.7550458333333333"/>
+          <c:h val="0.5218679155210787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$N$2:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$O$2:$O$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>7592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15210</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15218</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15228</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15230</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15232</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15241</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15241</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15245</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15246</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15258</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15263</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15265</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15268</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15269</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15269</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15277</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15277</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15277</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15297</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>15301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15306</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15307</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15308</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15308</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15308</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15314</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15315</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15326</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15331</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15334</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15340</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15497</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15559</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15559</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E87A-E84F-867E-E3D916BF1917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test262</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$N$2:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$P$2:$P$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17248</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E87A-E84F-867E-E3D916BF1917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1985328303"/>
+        <c:axId val="1184679248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1985328303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t> (h)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184679248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="25"/>
+        <c:tickMarkSkip val="25"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184679248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> 0-FS-TP</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.1789930555555558E-2"/>
+              <c:y val="0.29681689342403628"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1985328303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1772347222222222"/>
+          <c:y val="3.2316819502908184E-2"/>
+          <c:w val="0.74528923611111109"/>
+          <c:h val="0.10709695101353146"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -14928,8 +15313,23 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>8.03x</a:t>
+            <a:t>8.0</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>1x</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15467,16 +15867,168 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>206963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819779</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131881</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A40764-B07D-0C40-956D-1855FE0E7A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>75081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396444</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64665E05-0957-3F40-A9CF-49EF9CD52678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>75081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819778</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B287A125-AF22-DD43-96AE-9CF8447B6ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>206963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396444</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131881</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DC1018-8232-124C-8A17-F8DAE9812036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>17241</xdr:colOff>
+      <xdr:colOff>17240</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>756397</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>413685</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>41538</xdr:rowOff>
+      <xdr:rowOff>39852</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15497,7 +16049,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15675,7 +16227,9 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
@@ -15686,50 +16240,12 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>362755</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>73394</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="36" name="Chart 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1B3B32-86F4-5D48-BA45-4332C3C96DB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>93988</xdr:colOff>
+      <xdr:colOff>76506</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>98657</xdr:rowOff>
+      <xdr:rowOff>42213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="916213" cy="323102"/>
     <xdr:sp macro="" textlink="">
@@ -15745,7 +16261,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1737517" y="3796598"/>
+          <a:off x="1732210" y="3767546"/>
           <a:ext cx="916213" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15776,7 +16292,9 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
@@ -15790,9 +16308,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>93988</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>18230</xdr:rowOff>
+      <xdr:colOff>76509</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140530</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="916213" cy="323102"/>
     <xdr:sp macro="" textlink="">
@@ -15808,7 +16326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1737517" y="4127054"/>
+          <a:off x="1732213" y="4072826"/>
           <a:ext cx="916213" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15850,48 +16368,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>739157</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>196102</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="39" name="Chart 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB8BE3C-E912-8D47-8FF7-5399D030F0CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>515648</xdr:colOff>
+      <xdr:colOff>611056</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>89318</xdr:rowOff>
     </xdr:from>
@@ -15909,7 +16389,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4624472" y="3787259"/>
+          <a:off x="4750315" y="3814651"/>
           <a:ext cx="916213" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15954,7 +16434,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>505475</xdr:colOff>
+      <xdr:colOff>600883</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>158299</xdr:rowOff>
     </xdr:from>
@@ -15972,7 +16452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4644734" y="4297558"/>
+          <a:off x="4740142" y="4297558"/>
           <a:ext cx="916213" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16003,7 +16483,9 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
@@ -16014,50 +16496,12 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>18676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>739157</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>150722</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="42" name="Chart 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F00DF64-9141-5E48-A0B8-719C86968B18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>664986</xdr:colOff>
+      <xdr:colOff>608543</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>53345</xdr:rowOff>
+      <xdr:rowOff>81567</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="826188" cy="323102"/>
     <xdr:sp macro="" textlink="">
@@ -16073,7 +16517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4804245" y="7917938"/>
+          <a:off x="4747802" y="7946160"/>
           <a:ext cx="826188" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16118,9 +16562,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>486246</xdr:colOff>
+      <xdr:colOff>599136</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>37661</xdr:rowOff>
+      <xdr:rowOff>84698</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="826188" cy="323102"/>
     <xdr:sp macro="" textlink="">
@@ -16136,7 +16580,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4625505" y="6867439"/>
+          <a:off x="4738395" y="6914476"/>
           <a:ext cx="826188" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16178,50 +16622,12 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>606986</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>157439</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>524378</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="45" name="Chart 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31921227-B730-114C-8478-5807B20831E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>233838</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>145071</xdr:rowOff>
+      <xdr:colOff>243246</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>50997</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="826188" cy="323102"/>
     <xdr:sp macro="" textlink="">
@@ -16237,7 +16643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1889542" y="6767886"/>
+          <a:off x="1898950" y="6880775"/>
           <a:ext cx="826188" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16268,7 +16674,9 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
@@ -16282,9 +16690,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>346728</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>149724</xdr:rowOff>
+      <xdr:colOff>233839</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>74464</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="826188" cy="323102"/>
     <xdr:sp macro="" textlink="">
@@ -16300,7 +16708,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2002432" y="7807354"/>
+          <a:off x="1889543" y="7939057"/>
           <a:ext cx="826188" cy="323102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16644,7 +17052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBB744D-AE81-024F-BDA2-9DAEA7CD0DD0}">
   <dimension ref="A1:AI352"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
       <selection activeCell="O52" sqref="O52:X52"/>
     </sheetView>
   </sheetViews>
@@ -24511,8 +24919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A482B568-3A2B-BA4B-AD64-D5FFA86816B5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24525,47 +24933,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79D6C58-FFF6-5E4B-A1D1-27DBF53CA5CB}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView zoomScale="135" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>15562</v>
-      </c>
-      <c r="B1">
-        <v>17248</v>
-      </c>
-      <c r="C1">
-        <v>124994</v>
-      </c>
-      <c r="D1">
-        <v>122274</v>
-      </c>
-      <c r="E1">
-        <v>277325</v>
-      </c>
-      <c r="F1">
-        <v>290903</v>
-      </c>
-      <c r="G1">
-        <v>1896074</v>
-      </c>
-      <c r="H1">
-        <v>393475</v>
-      </c>
-      <c r="I1">
-        <v>3620699</v>
-      </c>
-      <c r="J1">
-        <v>717912</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>

--- a/paper/pldi23/img/data.xlsx
+++ b/paper/pldi23/img/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/internal-esmeta/babel-study/paper/pldi23/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA55483-E05A-2141-8D59-BF11A851210C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E247FB4-92C7-2148-BC49-6B307330B263}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{45A293A3-4F51-A547-B5E2-28579CD7826C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{45A293A3-4F51-A547-B5E2-28579CD7826C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -5898,7 +5898,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> 1-FCPS-TP</a:t>
+                  <a:t> 1-FCPS-TR</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1800">
                   <a:solidFill>
@@ -6952,7 +6952,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> 2-FS-TP</a:t>
+                  <a:t> 2-FS-TR</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1800">
                   <a:solidFill>
@@ -8006,7 +8006,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> 2-FCPS-TP</a:t>
+                  <a:t> 2-FCPS-TR</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1800">
                   <a:solidFill>
@@ -9060,7 +9060,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> 1-FS-TP</a:t>
+                  <a:t> 1-FS-TR</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1800">
                   <a:solidFill>
@@ -10114,7 +10114,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> 0-FS-TP</a:t>
+                  <a:t> 0-FS-TR</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1800">
                   <a:solidFill>
@@ -24919,8 +24919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A482B568-3A2B-BA4B-AD64-D5FFA86816B5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24935,8 +24935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79D6C58-FFF6-5E4B-A1D1-27DBF53CA5CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/paper/pldi23/img/data.xlsx
+++ b/paper/pldi23/img/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/internal-esmeta/babel-study/paper/pldi23/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E247FB4-92C7-2148-BC49-6B307330B263}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A5A380-DABF-1D4B-B67E-DA0F30C2F2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{45A293A3-4F51-A547-B5E2-28579CD7826C}"/>
   </bookViews>
@@ -16611,7 +16611,9 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
@@ -24936,7 +24938,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/paper/pldi23/img/data.xlsx
+++ b/paper/pldi23/img/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/internal-esmeta/babel-study/paper/pldi23/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A5A380-DABF-1D4B-B67E-DA0F30C2F2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBDEC3D-5B14-FC42-9EA1-70E68EFA14ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{45A293A3-4F51-A547-B5E2-28579CD7826C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{45A293A3-4F51-A547-B5E2-28579CD7826C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -15313,7 +15313,7 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>8.0</a:t>
+            <a:t>8.03</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
@@ -15322,7 +15322,7 @@
               </a:solidFill>
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>1x</a:t>
+            <a:t>x</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:solidFill>
@@ -24921,7 +24921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A482B568-3A2B-BA4B-AD64-D5FFA86816B5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -24937,8 +24937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79D6C58-FFF6-5E4B-A1D1-27DBF53CA5CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="135" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
